--- a/outputs/2023/metric_track_rel-202302.xlsx
+++ b/outputs/2023/metric_track_rel-202302.xlsx
@@ -373,7 +373,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>31.42</v>
+        <v>20.63</v>
       </c>
     </row>
   </sheetData>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>92.11</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +453,22 @@
         </is>
       </c>
       <c r="C4">
-        <v>65.33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C5">
-        <v>63.64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -483,112 +483,112 @@
         </is>
       </c>
       <c r="C6">
-        <v>56.25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C7">
-        <v>54.55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C8">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C12">
-        <v>45.45</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C13">
-        <v>43.48</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="14">
@@ -603,52 +603,52 @@
         </is>
       </c>
       <c r="C14">
-        <v>33.33</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C15">
-        <v>31.82</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C16">
-        <v>31.82</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="18">
@@ -663,37 +663,37 @@
         </is>
       </c>
       <c r="C18">
-        <v>28.85</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C19">
-        <v>26.67</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C20">
-        <v>21.21</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="21">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>16.67</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="22">
@@ -723,78 +723,78 @@
         </is>
       </c>
       <c r="C22">
-        <v>13.04</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C23">
-        <v>12.12</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C24">
-        <v>7.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C25">
-        <v>3.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C26">
-        <v>2.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C27">
@@ -804,75 +804,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>IN-AP</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>IN-KA</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>IN-TN</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C32">
         <v>0</v>
       </c>
     </row>
@@ -913,7 +853,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +863,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>40.18</v>
+        <v>27.68</v>
       </c>
     </row>
   </sheetData>
